--- a/june_version/DB_plan.xlsx
+++ b/june_version/DB_plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>DBに入れる情報</t>
     <rPh sb="3" eb="4">
@@ -455,6 +455,29 @@
   </si>
   <si>
     <t>photo_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー　でもこれいる？</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -749,23 +772,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D49"/>
+  <dimension ref="B3:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1110,7 +1133,7 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1130,7 +1153,7 @@
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
@@ -1183,7 +1206,7 @@
       <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1260,7 +1283,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1271,7 +1294,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1280,7 +1303,7 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1289,7 +1312,7 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1298,7 +1321,7 @@
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1307,7 +1330,7 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1316,7 +1339,7 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1325,7 +1348,7 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1334,7 +1357,7 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1345,7 +1368,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1373,16 +1396,18 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>61</v>
@@ -1391,59 +1416,79 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B44" s="19" t="s">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B45" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/june_version/DB_plan.xlsx
+++ b/june_version/DB_plan.xlsx
@@ -749,23 +749,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,19 +1049,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="45.296875" customWidth="1"/>
+    <col min="4" max="4" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>41</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>42</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1103,18 +1103,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
@@ -1123,16 +1123,16 @@
       </c>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
         <v>50</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="12" t="s">
         <v>51</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="12" t="s">
         <v>53</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
@@ -1176,18 +1176,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="12" t="s">
         <v>46</v>
       </c>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
         <v>5</v>
       </c>
@@ -1207,12 +1207,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1243,12 +1243,12 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1259,8 +1259,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="19" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1270,8 +1270,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1279,8 +1279,8 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="19" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1288,8 +1288,8 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="19" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1297,8 +1297,8 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="19" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1306,8 +1306,8 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="19" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1315,8 +1315,8 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="19" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1324,8 +1324,8 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="19" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1333,8 +1333,8 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="19" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1344,8 +1344,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B37" s="19" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1355,12 +1355,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
@@ -1398,23 +1398,23 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B44" s="19" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>37</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
         <v>58</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>57</v>
       </c>

--- a/june_version/DB_plan.xlsx
+++ b/june_version/DB_plan.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\photo_share\june_version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\new\photo_share\june_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="6480" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="必要なデータ一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="テーブル構造" sheetId="2" r:id="rId2"/>
+    <sheet name="新・テーブル構造案" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
   <si>
     <t>DBに入れる情報</t>
     <rPh sb="3" eb="4">
@@ -455,6 +457,329 @@
   </si>
   <si>
     <t>photo_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名。ログイン時に使用</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード。ログイン時に使用</t>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gyro_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：gyro_data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要素名</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gyro_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photo_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photo_dataの外部キー</t>
+    <rPh sb="11" eb="13">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photo_dataから参照</t>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gyro_beta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gyro_alpha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gyro_gamma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>angle_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postion_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：camera_angle_position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>angle_position_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high low midlleの三種類</t>
+    <rPh sb="16" eb="19">
+      <t>サンシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photo_dataのangle_id,position_idと対応</t>
+    <rPh sb="32" eb="34">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crop_size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit_photo_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真名。表示時に使用</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャイロ情報のid　gyro_dataと紐づけ</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラの角度のid，camera_angle_positionにposition情報</t>
+    <rPh sb="4" eb="6">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラの位置のid，camera_angle_positionにposition情報</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>colorfilter_id</t>
+  </si>
+  <si>
+    <t>カラーフィルターのid．color_filterと紐づけ</t>
+    <rPh sb="25" eb="26">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：color_filter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>colorfilter_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>colorfilter_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーフィルターのid．edit_dataと紐づけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーフィルター名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真の画面サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>take_photo_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：tag_relation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag_relation_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ情報のid．tagテーブルと紐づけ</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tagのid　tag_relationに紐づけ</t>
+    <rPh sb="20" eb="21">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オートインクリメント。主キー, 写真とタグを関係づける</t>
+    <rPh sb="16" eb="18">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag名 ，複数登録or単体登録？</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,7 +812,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -700,13 +1025,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +1088,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1047,21 +1394,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D49"/>
+  <dimension ref="B3:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A4" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="24.35546875" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="2:4" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="18.899999999999999" thickTop="1" x14ac:dyDescent="0.65">
       <c r="B5" s="11" t="s">
         <v>41</v>
       </c>
@@ -1081,7 +1428,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B6" s="12" t="s">
         <v>42</v>
       </c>
@@ -1092,7 +1439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1103,36 +1450,36 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B10" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B11" s="12" t="s">
         <v>50</v>
       </c>
@@ -1143,7 +1490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B12" s="12" t="s">
         <v>51</v>
       </c>
@@ -1154,7 +1501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B13" s="12" t="s">
         <v>53</v>
       </c>
@@ -1165,7 +1512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
@@ -1176,27 +1523,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B15" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B16" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="2:4" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B17" s="13" t="s">
         <v>5</v>
       </c>
@@ -1206,244 +1553,6 @@
       <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1454,4 +1563,709 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A26" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.2109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.92578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A15" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A28" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/june_version/DB_plan.xlsx
+++ b/june_version/DB_plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
   <si>
     <t>DBに入れる情報</t>
     <rPh sb="3" eb="4">
@@ -701,10 +701,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>take_photo_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tag_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -780,6 +776,14 @@
     <rPh sb="14" eb="16">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>take_photo_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1841,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1937,7 +1941,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A10" s="14" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -1957,7 +1961,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A11" s="14" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -2031,7 +2035,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A15" s="16" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>90</v>
@@ -2186,10 +2190,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
         <v>115</v>
-      </c>
-      <c r="E26" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.65">
@@ -2214,22 +2218,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A28" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>120</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.65">
@@ -2243,24 +2247,24 @@
         <v>59</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/june_version/DB_plan.xlsx
+++ b/june_version/DB_plan.xlsx
@@ -1845,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>

--- a/june_version/DB_plan.xlsx
+++ b/june_version/DB_plan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -40,6 +40,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">に入れる情報</t>
     </r>
@@ -84,6 +85,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ジャイロセンサ</t>
     </r>
@@ -111,6 +113,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ジャイロセンサ</t>
     </r>
@@ -135,6 +138,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ジャイロセンサ</t>
     </r>
@@ -162,6 +166,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ハイ・ミドル・ローの</t>
     </r>
@@ -181,6 +186,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">種。判定は上のセンサから</t>
     </r>
@@ -198,6 +204,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ハイ・ミドル・ローの</t>
     </r>
@@ -217,6 +224,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">種。フロントでユーザに選択</t>
     </r>
@@ -262,6 +270,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">写真に付与するタグ</t>
     </r>
@@ -281,6 +290,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">猫とかビルとか</t>
     </r>
@@ -305,6 +315,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -353,6 +364,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -383,6 +395,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -402,6 +415,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の</t>
     </r>
@@ -421,6 +435,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">と紐づける</t>
     </r>
@@ -432,6 +447,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -453,6 +469,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -472,6 +489,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の</t>
     </r>
@@ -491,6 +509,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">と紐付ける</t>
     </r>
@@ -502,6 +521,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -523,6 +543,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -542,6 +563,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の</t>
     </r>
@@ -561,6 +583,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">と紐付けて可変を可能にする</t>
     </r>
@@ -572,6 +595,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -611,6 +635,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -626,7 +651,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">写真名。表示時に使用</t>
+    <t xml:space="preserve">ファイル名</t>
   </si>
   <si>
     <t xml:space="preserve">camera_angle</t>
@@ -638,6 +663,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">写真撮影時のアングル（</t>
     </r>
@@ -647,6 +673,7 @@
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">high | low | middle)</t>
     </r>
@@ -661,6 +688,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">写真撮影時のポジション（</t>
     </r>
@@ -670,6 +698,7 @@
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">high | low | middle)</t>
     </r>
@@ -690,6 +719,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ジャイロセンサの</t>
     </r>
@@ -709,6 +739,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">軸（</t>
     </r>
@@ -728,6 +759,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">軸）</t>
     </r>
@@ -742,6 +774,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ジャイロセンサの</t>
     </r>
@@ -761,6 +794,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">軸（</t>
     </r>
@@ -780,6 +814,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">軸）</t>
     </r>
@@ -794,6 +829,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ジャイロセンサの</t>
     </r>
@@ -813,6 +849,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">軸（</t>
     </r>
@@ -832,6 +869,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">軸）</t>
     </r>
@@ -846,6 +884,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">写真サイズ（</t>
     </r>
@@ -865,6 +904,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -879,6 +919,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -894,6 +935,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">加工後の写真名</t>
+  </si>
+  <si>
     <t xml:space="preserve">crop_size</t>
   </si>
   <si>
@@ -903,6 +947,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">クロップ後の写真サイズ（</t>
     </r>
@@ -912,6 +957,7 @@
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">width,height</t>
     </r>
@@ -921,6 +967,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -989,6 +1036,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -1013,6 +1061,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -1037,6 +1086,7 @@
         <color rgb="FF000000"/>
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">テーブル：</t>
     </r>
@@ -1071,6 +1121,7 @@
       <color rgb="FF000000"/>
       <name val="IPA Pゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1099,6 +1150,7 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1234,7 +1286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1303,14 +1355,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1338,7 +1382,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="68.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.63"/>
   </cols>
@@ -1563,13 +1607,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1590,7 +1634,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1601,7 +1645,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1610,7 +1654,7 @@
       <c r="C11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1619,7 +1663,7 @@
       <c r="C12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1628,7 +1672,7 @@
       <c r="C13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1637,7 +1681,7 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -1646,7 +1690,7 @@
       <c r="C15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1655,7 +1699,7 @@
       <c r="C16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -1664,7 +1708,7 @@
       <c r="C17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -1675,7 +1719,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -1729,10 +1773,10 @@
       <c r="C25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -1791,10 +1835,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D58"/>
+  <dimension ref="A2:D59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1862,7 +1906,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1871,7 +1915,7 @@
       <c r="C6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1895,7 +1939,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1909,19 +1953,21 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1933,7 +1979,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1945,7 +1991,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1957,11 +2003,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
@@ -1969,11 +2015,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
@@ -1981,11 +2027,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
@@ -2038,7 +2084,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -2051,366 +2097,366 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="D24" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="B25" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="B35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="D35" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
+    <row r="37" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B38" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D38" s="15" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="D40" s="15" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="B48" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B51" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B52" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="D53" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+    <row r="55" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B56" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D56" s="15" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>41</v>
@@ -2418,13 +2464,13 @@
       <c r="C57" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>101</v>
+      <c r="D57" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>41</v>
@@ -2433,7 +2479,21 @@
         <v>60</v>
       </c>
       <c r="D58" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
         <v>108</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/june_version/DB_plan.xlsx
+++ b/june_version/DB_plan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="113">
   <si>
     <r>
       <rPr>
@@ -651,7 +651,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ファイル名</t>
+    <t xml:space="preserve">オリジナルの写真ファイル名（ユニークである必要性有り）</t>
   </si>
   <si>
     <t xml:space="preserve">camera_angle</t>
@@ -935,7 +935,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">加工後の写真名</t>
+    <t xml:space="preserve">加工後の写真ファイル名（ユニークである必要性有り）</t>
   </si>
   <si>
     <t xml:space="preserve">crop_size</t>
@@ -1027,79 +1027,206 @@
     <t xml:space="preserve">彩度フィルタのパラメータ</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">photo.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（元となった写真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">edit_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">とは排他</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">edit_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">edit.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（元となった加工後の写真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">phto_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">とは排他</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">テーブル：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">filter_preset</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">プリセット名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">テーブル：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">tag</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">タグ名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">テーブル：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">photo_tag_relation</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">photo.id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">テーブル：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">filter_preset</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">プリセット名</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">テーブル：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">tag</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">タグ名</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">テーブル：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">photo_tag_relation</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">tag_id</t>
@@ -1835,10 +1962,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D59"/>
+  <dimension ref="A2:D60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2231,246 +2358,242 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="C35" s="16"/>
       <c r="D35" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+      <c r="B36" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B39" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D39" s="15" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="D41" s="15" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+    <row r="51" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B52" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B57" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D57" s="15" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>41</v>
@@ -2478,13 +2601,13 @@
       <c r="C58" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>102</v>
+      <c r="D58" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="16" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>41</v>
@@ -2493,7 +2616,21 @@
         <v>60</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
